--- a/Jogos_da_Semana_FlashScore_2025-04-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-25.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -695,7 +695,7 @@
         <v>8.5</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -1028,10 +1028,10 @@
         <v>17</v>
       </c>
       <c r="L5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N5" t="n">
         <v>1.53</v>
@@ -1867,49 +1867,49 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H12" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="I12" t="n">
         <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M12" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="N12" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S12" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="U12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="V12" t="n">
         <v>8.25</v>
@@ -1918,28 +1918,28 @@
         <v>9.75</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB12" t="n">
         <v>17.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE12" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF12" t="n">
         <v>37</v>
@@ -3878,39 +3878,39 @@
         <v>3.65</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="N30" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O30" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P30" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R30" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="U30" t="n">
         <v>19.5</v>
@@ -3928,22 +3928,22 @@
         <v>40</v>
       </c>
       <c r="Z30" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB30" t="n">
         <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="n">
         <v>600</v>
       </c>
       <c r="AE30" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
@@ -3952,13 +3952,13 @@
         <v>8.5</v>
       </c>
       <c r="AH30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI30" t="n">
         <v>17</v>
       </c>
-      <c r="AI30" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -5327,13 +5327,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J42" t="n">
         <v>1.03</v>
@@ -5342,37 +5342,37 @@
         <v>17</v>
       </c>
       <c r="L42" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M42" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N42" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O42" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="P42" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R42" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S42" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U42" t="n">
         <v>7.5</v>
       </c>
       <c r="V42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W42" t="n">
         <v>9</v>
@@ -5384,7 +5384,7 @@
         <v>23</v>
       </c>
       <c r="Z42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA42" t="n">
         <v>9.5</v>
@@ -5396,16 +5396,16 @@
         <v>51</v>
       </c>
       <c r="AD42" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF42" t="n">
         <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH42" t="n">
         <v>101</v>
@@ -6169,13 +6169,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I49" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -6198,10 +6198,10 @@
         <v>2.32</v>
       </c>
       <c r="R49" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S49" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T49" t="n">
         <v>7.7</v>
@@ -6210,25 +6210,25 @@
         <v>13.5</v>
       </c>
       <c r="V49" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W49" t="n">
         <v>35</v>
       </c>
       <c r="X49" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y49" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z49" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA49" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB49" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC49" t="n">
         <v>75</v>
@@ -6237,10 +6237,10 @@
         <v>700</v>
       </c>
       <c r="AE49" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AF49" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG49" t="n">
         <v>9.5</v>
@@ -6252,7 +6252,7 @@
         <v>22</v>
       </c>
       <c r="AJ49" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
@@ -10936,16 +10936,16 @@
         <v>2.63</v>
       </c>
       <c r="H93" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I93" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J93" t="n">
         <v>1.07</v>
       </c>
       <c r="K93" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L93" t="n">
         <v>1.36</v>
@@ -10960,16 +10960,16 @@
         <v>1.67</v>
       </c>
       <c r="P93" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R93" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S93" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T93" t="n">
         <v>7.5</v>
@@ -10990,19 +10990,19 @@
         <v>34</v>
       </c>
       <c r="Z93" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA93" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB93" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC93" t="n">
         <v>51</v>
       </c>
       <c r="AD93" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE93" t="n">
         <v>7.5</v>
@@ -12617,19 +12617,19 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I107" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J107" t="n">
         <v>1.02</v>
       </c>
       <c r="K107" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L107" t="n">
         <v>1.13</v>
@@ -12659,7 +12659,7 @@
         <v>10</v>
       </c>
       <c r="U107" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V107" t="n">
         <v>8.5</v>
@@ -12680,7 +12680,7 @@
         <v>10</v>
       </c>
       <c r="AB107" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC107" t="n">
         <v>41</v>
@@ -12689,10 +12689,10 @@
         <v>151</v>
       </c>
       <c r="AE107" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF107" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG107" t="n">
         <v>19</v>
@@ -12870,10 +12870,10 @@
         <v>10</v>
       </c>
       <c r="J109" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K109" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L109" t="n">
         <v>1.14</v>
@@ -14214,10 +14214,10 @@
         <v>3.6</v>
       </c>
       <c r="J121" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K121" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L121" t="n">
         <v>1.44</v>
@@ -14348,7 +14348,7 @@
         <v>4</v>
       </c>
       <c r="N122" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O122" t="n">
         <v>2.05</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-25.xlsx
@@ -650,16 +650,16 @@
         <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
         <v>1.17</v>
@@ -695,7 +695,7 @@
         <v>8.5</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -1269,13 +1269,13 @@
         <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
         <v>1.44</v>
@@ -1504,10 +1504,10 @@
         <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1522,10 +1522,10 @@
         <v>3.8</v>
       </c>
       <c r="N9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P9" t="n">
         <v>1.35</v>
@@ -1570,10 +1570,10 @@
         <v>55</v>
       </c>
       <c r="AD9" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF9" t="n">
         <v>28</v>
@@ -1582,7 +1582,7 @@
         <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="n">
         <v>40</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H10" t="n">
         <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.22</v>
@@ -1680,10 +1680,10 @@
         <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
@@ -1692,22 +1692,22 @@
         <v>50</v>
       </c>
       <c r="AD10" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG10" t="n">
         <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
         <v>30</v>
@@ -1879,37 +1879,37 @@
         <v>1.04</v>
       </c>
       <c r="K12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.21</v>
       </c>
       <c r="M12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="N12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O12" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="P12" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T12" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="U12" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="V12" t="n">
         <v>8.25</v>
@@ -1921,25 +1921,25 @@
         <v>11.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA12" t="n">
         <v>8.75</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="n">
         <v>600</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>37</v>
@@ -2010,10 +2010,10 @@
         <v>3.6</v>
       </c>
       <c r="N13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>1.37</v>
@@ -2306,13 +2306,13 @@
         <v>1.67</v>
       </c>
       <c r="J17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="n">
         <v>13</v>
       </c>
       <c r="L17" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M17" t="n">
         <v>4.33</v>
@@ -3050,10 +3050,10 @@
         <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O23" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3294,10 +3294,10 @@
         <v>3.4</v>
       </c>
       <c r="N25" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="O25" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3395,10 +3395,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
         <v>5.5</v>
@@ -3422,10 +3422,10 @@
         <v>2.15</v>
       </c>
       <c r="P26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R26" t="n">
         <v>1.75</v>
@@ -3642,7 +3642,7 @@
         <v>5.2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I28" t="n">
         <v>1.6</v>
@@ -3650,34 +3650,34 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N28" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="O28" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P28" t="n">
         <v>1.42</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="R28" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S28" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V28" t="n">
         <v>17.5</v>
@@ -3692,34 +3692,34 @@
         <v>65</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA28" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD28" t="n">
         <v>900</v>
       </c>
       <c r="AE28" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AF28" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AG28" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH28" t="n">
         <v>11.25</v>
       </c>
       <c r="AI28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ28" t="n">
         <v>32</v>
@@ -3886,10 +3886,10 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N30" t="n">
         <v>1.98</v>
@@ -3901,10 +3901,10 @@
         <v>1.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S30" t="n">
         <v>1.8</v>
@@ -3925,28 +3925,28 @@
         <v>35</v>
       </c>
       <c r="Y30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z30" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA30" t="n">
         <v>6.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE30" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG30" t="n">
         <v>8.5</v>
@@ -4115,27 +4115,27 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M32" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -4149,13 +4149,13 @@
         <v>8.5</v>
       </c>
       <c r="U32" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V32" t="n">
         <v>8.25</v>
       </c>
       <c r="W32" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="X32" t="n">
         <v>14</v>
@@ -4164,13 +4164,13 @@
         <v>22</v>
       </c>
       <c r="Z32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC32" t="n">
         <v>50</v>
@@ -4179,7 +4179,7 @@
         <v>350</v>
       </c>
       <c r="AE32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
         <v>21</v>
@@ -4188,10 +4188,10 @@
         <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ32" t="n">
         <v>32</v>
@@ -4232,43 +4232,43 @@
         <v>2.2</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
         <v>2.88</v>
       </c>
       <c r="J33" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O33" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="P33" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U33" t="n">
         <v>12</v>
@@ -4280,13 +4280,13 @@
         <v>21</v>
       </c>
       <c r="X33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA33" t="n">
         <v>6.5</v>
@@ -4298,13 +4298,13 @@
         <v>41</v>
       </c>
       <c r="AD33" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG33" t="n">
         <v>11</v>
@@ -4360,22 +4360,22 @@
         <v>2.2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P34" t="n">
         <v>1.33</v>
@@ -4476,34 +4476,34 @@
         <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
         <v>2.88</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L35" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O35" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="P35" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R35" t="n">
         <v>1.8</v>
@@ -4530,7 +4530,7 @@
         <v>29</v>
       </c>
       <c r="Z35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA35" t="n">
         <v>6.5</v>
@@ -4595,25 +4595,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L36" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M36" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N36" t="n">
         <v>1.7</v>
@@ -4634,25 +4634,25 @@
         <v>2.2</v>
       </c>
       <c r="T36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y36" t="n">
         <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="n">
         <v>7</v>
@@ -4682,7 +4682,7 @@
         <v>15</v>
       </c>
       <c r="AJ36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -4848,13 +4848,13 @@
         <v>6.25</v>
       </c>
       <c r="J38" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K38" t="n">
         <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
         <v>3.25</v>
@@ -4970,13 +4970,13 @@
         <v>2.8</v>
       </c>
       <c r="J39" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K39" t="n">
         <v>10</v>
       </c>
       <c r="L39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M39" t="n">
         <v>3.2</v>
@@ -5092,10 +5092,10 @@
         <v>3.2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L40" t="n">
         <v>1.5</v>
@@ -5449,19 +5449,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
         <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J43" t="n">
         <v>1.07</v>
       </c>
       <c r="K43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.36</v>
@@ -5470,10 +5470,10 @@
         <v>3</v>
       </c>
       <c r="N43" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O43" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P43" t="n">
         <v>1.44</v>
@@ -5482,22 +5482,22 @@
         <v>2.63</v>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T43" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V43" t="n">
         <v>9</v>
       </c>
       <c r="W43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X43" t="n">
         <v>17</v>
@@ -5518,16 +5518,16 @@
         <v>51</v>
       </c>
       <c r="AD43" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE43" t="n">
         <v>10</v>
       </c>
       <c r="AF43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH43" t="n">
         <v>41</v>
@@ -5844,13 +5844,13 @@
         <v>2.37</v>
       </c>
       <c r="R46" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S46" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T46" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U46" t="n">
         <v>10</v>
@@ -5871,10 +5871,10 @@
         <v>8.25</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC46" t="n">
         <v>80</v>
@@ -5883,7 +5883,7 @@
         <v>700</v>
       </c>
       <c r="AE46" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF46" t="n">
         <v>16</v>
@@ -5947,7 +5947,7 @@
         <v>1.36</v>
       </c>
       <c r="M47" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="N47" t="n">
         <v>2.05</v>
@@ -5974,7 +5974,7 @@
         <v>12</v>
       </c>
       <c r="V47" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W47" t="n">
         <v>28</v>
@@ -5986,7 +5986,7 @@
         <v>30</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA47" t="n">
         <v>5.5</v>
@@ -5995,25 +5995,25 @@
         <v>13</v>
       </c>
       <c r="AC47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD47" t="n">
         <v>500</v>
       </c>
       <c r="AE47" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF47" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH47" t="n">
         <v>45</v>
       </c>
       <c r="AI47" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ47" t="n">
         <v>35</v>
@@ -6086,22 +6086,22 @@
         <v>1.7</v>
       </c>
       <c r="T48" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="U48" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V48" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W48" t="n">
         <v>24</v>
       </c>
       <c r="X48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y48" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z48" t="n">
         <v>6.7</v>
@@ -6119,19 +6119,19 @@
         <v>900</v>
       </c>
       <c r="AE48" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AF48" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG48" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH48" t="n">
         <v>45</v>
       </c>
       <c r="AI48" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ48" t="n">
         <v>45</v>
@@ -6172,7 +6172,7 @@
         <v>2.8</v>
       </c>
       <c r="H49" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
         <v>2.5</v>
@@ -6204,7 +6204,7 @@
         <v>1.8</v>
       </c>
       <c r="T49" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="U49" t="n">
         <v>13.5</v>
@@ -6228,7 +6228,7 @@
         <v>5.9</v>
       </c>
       <c r="AB49" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC49" t="n">
         <v>75</v>
@@ -6237,19 +6237,19 @@
         <v>700</v>
       </c>
       <c r="AE49" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AF49" t="n">
         <v>11.75</v>
       </c>
       <c r="AG49" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH49" t="n">
         <v>27</v>
       </c>
       <c r="AI49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ49" t="n">
         <v>35</v>
@@ -6440,13 +6440,13 @@
         <v>1.75</v>
       </c>
       <c r="T51" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U51" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V51" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W51" t="n">
         <v>40</v>
@@ -6455,13 +6455,13 @@
         <v>30</v>
       </c>
       <c r="Y51" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z51" t="n">
         <v>7.8</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB51" t="n">
         <v>16</v>
@@ -6473,10 +6473,10 @@
         <v>800</v>
       </c>
       <c r="AE51" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AF51" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AG51" t="n">
         <v>9.25</v>
@@ -6526,7 +6526,7 @@
         <v>1.91</v>
       </c>
       <c r="H52" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I52" t="n">
         <v>4.05</v>
@@ -6534,10 +6534,10 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M52" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="N52" t="n">
         <v>2.25</v>
@@ -6558,22 +6558,22 @@
         <v>1.62</v>
       </c>
       <c r="T52" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="U52" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="V52" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W52" t="n">
         <v>16</v>
       </c>
       <c r="X52" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y52" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z52" t="n">
         <v>7.1</v>
@@ -6600,7 +6600,7 @@
         <v>14</v>
       </c>
       <c r="AH52" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI52" t="n">
         <v>45</v>
@@ -6676,22 +6676,22 @@
         <v>1.75</v>
       </c>
       <c r="T53" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="U53" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V53" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W53" t="n">
         <v>35</v>
       </c>
       <c r="X53" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y53" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z53" t="n">
         <v>6.9</v>
@@ -6709,22 +6709,22 @@
         <v>800</v>
       </c>
       <c r="AE53" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AF53" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG53" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH53" t="n">
         <v>30</v>
       </c>
       <c r="AI53" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ53" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
@@ -6759,13 +6759,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="H54" t="n">
         <v>3.15</v>
       </c>
       <c r="I54" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -6776,49 +6776,49 @@
         <v>2.95</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O54" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P54" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R54" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S54" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="T54" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="U54" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="V54" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="W54" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="X54" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y54" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z54" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA54" t="n">
         <v>5.4</v>
       </c>
       <c r="AB54" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC54" t="n">
         <v>55</v>
@@ -6827,22 +6827,22 @@
         <v>400</v>
       </c>
       <c r="AE54" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AF54" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AH54" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AI54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ54" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
@@ -6877,90 +6877,90 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M55" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N55" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O55" t="n">
         <v>1.57</v>
       </c>
       <c r="P55" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R55" t="n">
         <v>1.95</v>
       </c>
       <c r="S55" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="T55" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U55" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="V55" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="W55" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="X55" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
       </c>
       <c r="Z55" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE55" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA55" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AF55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH55" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI55" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ55" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
@@ -7016,10 +7016,10 @@
         <v>3.75</v>
       </c>
       <c r="N56" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="O56" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="P56" t="n">
         <v>1.36</v>
@@ -7370,22 +7370,22 @@
         <v>2.3</v>
       </c>
       <c r="J59" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K59" t="n">
         <v>11</v>
       </c>
       <c r="L59" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M59" t="n">
         <v>3.75</v>
       </c>
       <c r="N59" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P59" t="n">
         <v>1.36</v>
@@ -7597,10 +7597,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I61" t="n">
         <v>1.95</v>
@@ -7608,34 +7608,34 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="N61" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O61" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P61" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="R61" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S61" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T61" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="U61" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V61" t="n">
         <v>12</v>
@@ -7650,22 +7650,22 @@
         <v>37</v>
       </c>
       <c r="Z61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA61" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB61" t="n">
         <v>14</v>
       </c>
       <c r="AC61" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD61" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE61" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AF61" t="n">
         <v>9.25</v>
@@ -7674,13 +7674,13 @@
         <v>8.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI61" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ61" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
@@ -8088,10 +8088,10 @@
         <v>7</v>
       </c>
       <c r="L65" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M65" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N65" t="n">
         <v>2.5</v>
@@ -8204,22 +8204,22 @@
         <v>1.73</v>
       </c>
       <c r="J66" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L66" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M66" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N66" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O66" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P66" t="n">
         <v>1.44</v>
@@ -8441,15 +8441,15 @@
         <v>3.7</v>
       </c>
       <c r="I68" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M68" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="N68" t="n">
         <v>1.78</v>
@@ -8464,10 +8464,10 @@
         <v>2.6</v>
       </c>
       <c r="R68" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S68" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T68" t="n">
         <v>7.1</v>
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H69" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I69" t="n">
         <v>3.35</v>
@@ -8570,73 +8570,73 @@
         <v>3.1</v>
       </c>
       <c r="N69" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O69" t="n">
         <v>1.8</v>
       </c>
       <c r="P69" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R69" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S69" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T69" t="n">
         <v>7.7</v>
       </c>
       <c r="U69" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V69" t="n">
         <v>8.5</v>
       </c>
       <c r="W69" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X69" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y69" t="n">
         <v>26</v>
       </c>
       <c r="Z69" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB69" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD69" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE69" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG69" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH69" t="n">
         <v>45</v>
       </c>
       <c r="AI69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ69" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
@@ -8801,7 +8801,7 @@
         <v>1.07</v>
       </c>
       <c r="K71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L71" t="n">
         <v>1.36</v>
@@ -8852,7 +8852,7 @@
         <v>6.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC71" t="n">
         <v>51</v>
@@ -8861,7 +8861,7 @@
         <v>351</v>
       </c>
       <c r="AE71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF71" t="n">
         <v>9.5</v>
@@ -8911,13 +8911,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H72" t="n">
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J72" t="n">
         <v>1.08</v>
@@ -10698,16 +10698,16 @@
         <v>3.6</v>
       </c>
       <c r="J91" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K91" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L91" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M91" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N91" t="n">
         <v>2.5</v>
@@ -11299,13 +11299,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H96" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I96" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J96" t="n">
         <v>1.05</v>
@@ -11320,10 +11320,10 @@
         <v>3.5</v>
       </c>
       <c r="N96" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O96" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P96" t="n">
         <v>1.4</v>
@@ -11374,7 +11374,7 @@
         <v>12</v>
       </c>
       <c r="AF96" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG96" t="n">
         <v>15</v>
@@ -11383,7 +11383,7 @@
         <v>51</v>
       </c>
       <c r="AI96" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ96" t="n">
         <v>41</v>
@@ -11427,7 +11427,7 @@
         <v>3.4</v>
       </c>
       <c r="I97" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J97" t="n">
         <v>1.05</v>
@@ -11442,10 +11442,10 @@
         <v>3.5</v>
       </c>
       <c r="N97" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O97" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P97" t="n">
         <v>1.4</v>
@@ -11493,7 +11493,7 @@
         <v>201</v>
       </c>
       <c r="AE97" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF97" t="n">
         <v>13</v>
@@ -12156,46 +12156,46 @@
         <v>1.65</v>
       </c>
       <c r="H103" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I103" t="n">
         <v>5.25</v>
       </c>
       <c r="J103" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K103" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L103" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M103" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N103" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O103" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="P103" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R103" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S103" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T103" t="n">
         <v>6.5</v>
       </c>
       <c r="U103" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V103" t="n">
         <v>8.5</v>
@@ -12204,25 +12204,25 @@
         <v>12</v>
       </c>
       <c r="X103" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y103" t="n">
         <v>29</v>
       </c>
       <c r="Z103" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA103" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB103" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC103" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD103" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE103" t="n">
         <v>13</v>
@@ -12240,7 +12240,7 @@
         <v>41</v>
       </c>
       <c r="AJ103" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104">
@@ -12300,10 +12300,10 @@
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S104" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T104" t="n">
         <v>7.2</v>
@@ -12503,13 +12503,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="H106" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="I106" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -12517,63 +12517,63 @@
         <v>1.24</v>
       </c>
       <c r="M106" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="N106" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O106" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="S106" t="n">
         <v>1.64</v>
       </c>
       <c r="T106" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="U106" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="V106" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="W106" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="X106" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y106" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z106" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA106" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AB106" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC106" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD106" t="n">
         <v>500</v>
       </c>
       <c r="AE106" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF106" t="n">
         <v>40</v>
       </c>
       <c r="AG106" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH106" t="n">
         <v>150</v>
@@ -14348,7 +14348,7 @@
         <v>4</v>
       </c>
       <c r="N122" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O122" t="n">
         <v>2.05</v>
@@ -14877,19 +14877,19 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I127" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="J127" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K127" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L127" t="n">
         <v>1.36</v>
@@ -14898,16 +14898,16 @@
         <v>3</v>
       </c>
       <c r="N127" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O127" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P127" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R127" t="n">
         <v>1.91</v>
@@ -14916,31 +14916,31 @@
         <v>1.8</v>
       </c>
       <c r="T127" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U127" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="V127" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W127" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X127" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y127" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z127" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA127" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC127" t="n">
         <v>51</v>
@@ -14949,19 +14949,19 @@
         <v>800</v>
       </c>
       <c r="AE127" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF127" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG127" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI127" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ127" t="n">
         <v>41</v>
@@ -15243,19 +15243,19 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J130" t="n">
         <v>1.01</v>
       </c>
       <c r="K130" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L130" t="n">
         <v>1.08</v>
@@ -15264,10 +15264,10 @@
         <v>8</v>
       </c>
       <c r="N130" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="O130" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P130" t="n">
         <v>1.18</v>
@@ -15291,40 +15291,40 @@
         <v>10</v>
       </c>
       <c r="W130" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X130" t="n">
         <v>10</v>
       </c>
       <c r="Y130" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z130" t="n">
         <v>23</v>
       </c>
       <c r="AA130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB130" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC130" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD130" t="n">
         <v>151</v>
       </c>
       <c r="AE130" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF130" t="n">
         <v>51</v>
       </c>
       <c r="AG130" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH130" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI130" t="n">
         <v>67</v>
@@ -15604,7 +15604,7 @@
         <v>3.95</v>
       </c>
       <c r="H133" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I133" t="n">
         <v>1.88</v>
@@ -15633,7 +15633,7 @@
         <v>1.9</v>
       </c>
       <c r="S133" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T133" t="n">
         <v>9.5</v>
@@ -15642,7 +15642,7 @@
         <v>20</v>
       </c>
       <c r="V133" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="W133" t="n">
         <v>60</v>
@@ -15669,7 +15669,7 @@
         <v>900</v>
       </c>
       <c r="AE133" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AF133" t="n">
         <v>8.25</v>
@@ -15678,7 +15678,7 @@
         <v>8.5</v>
       </c>
       <c r="AH133" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI133" t="n">
         <v>16.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-25.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -680,13 +680,13 @@
         <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U2" t="n">
         <v>9</v>
@@ -772,16 +772,16 @@
         <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
         <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L3" t="n">
         <v>1.14</v>
@@ -808,7 +808,7 @@
         <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U3" t="n">
         <v>8.5</v>
@@ -826,7 +826,7 @@
         <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>10</v>
@@ -1144,10 +1144,10 @@
         <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L6" t="n">
         <v>1.14</v>
@@ -1156,10 +1156,10 @@
         <v>5.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P6" t="n">
         <v>1.25</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
         <v>2.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L7" t="n">
         <v>1.13</v>
@@ -1314,7 +1314,7 @@
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
         <v>8.5</v>
@@ -1332,7 +1332,7 @@
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
         <v>9.5</v>
@@ -1344,7 +1344,7 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.05</v>
@@ -1412,25 +1412,25 @@
         <v>2.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
       </c>
       <c r="U8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W8" t="n">
+        <v>19</v>
+      </c>
+      <c r="X8" t="n">
         <v>17</v>
-      </c>
-      <c r="X8" t="n">
-        <v>15</v>
       </c>
       <c r="Y8" t="n">
         <v>26</v>
@@ -1451,13 +1451,13 @@
         <v>201</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>19</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
@@ -2306,22 +2306,22 @@
         <v>1.67</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K17" t="n">
         <v>13</v>
       </c>
       <c r="L17" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M17" t="n">
         <v>4.33</v>
       </c>
       <c r="N17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P17" t="n">
         <v>1.33</v>
@@ -2800,10 +2800,10 @@
         <v>7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N21" t="n">
         <v>2.5</v>
@@ -2907,19 +2907,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="J22" t="n">
         <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="L22" t="n">
         <v>1.3</v>
@@ -2934,64 +2934,64 @@
         <v>1.85</v>
       </c>
       <c r="P22" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R22" t="n">
         <v>1.72</v>
       </c>
       <c r="S22" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="U22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V22" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="W22" t="n">
         <v>40</v>
       </c>
       <c r="X22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y22" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE22" t="n">
         <v>7.8</v>
       </c>
-      <c r="AA22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG22" t="n">
         <v>9.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
@@ -3050,10 +3050,10 @@
         <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3294,10 +3294,10 @@
         <v>3.4</v>
       </c>
       <c r="N25" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3529,7 +3529,7 @@
         <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L27" t="n">
         <v>1.13</v>
@@ -3757,13 +3757,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="H29" t="n">
         <v>3.05</v>
       </c>
       <c r="I29" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -3786,7 +3786,7 @@
         <v>2.25</v>
       </c>
       <c r="R29" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S29" t="n">
         <v>1.7</v>
@@ -3798,13 +3798,13 @@
         <v>8.75</v>
       </c>
       <c r="V29" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W29" t="n">
+        <v>18</v>
+      </c>
+      <c r="X29" t="n">
         <v>18.5</v>
-      </c>
-      <c r="X29" t="n">
-        <v>19</v>
       </c>
       <c r="Y29" t="n">
         <v>35</v>
@@ -3816,7 +3816,7 @@
         <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
         <v>100</v>
@@ -3828,13 +3828,13 @@
         <v>8.75</v>
       </c>
       <c r="AF29" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG29" t="n">
         <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI29" t="n">
         <v>40</v>
@@ -4354,7 +4354,7 @@
         <v>3.2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
         <v>2.2</v>
@@ -4372,28 +4372,28 @@
         <v>4.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R34" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T34" t="n">
         <v>13</v>
       </c>
       <c r="U34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V34" t="n">
         <v>12</v>
@@ -4408,16 +4408,16 @@
         <v>26</v>
       </c>
       <c r="Z34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD34" t="n">
         <v>126</v>
@@ -4435,7 +4435,7 @@
         <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ34" t="n">
         <v>21</v>
@@ -4473,31 +4473,31 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N35" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="O35" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P35" t="n">
         <v>1.44</v>
@@ -4515,16 +4515,16 @@
         <v>8</v>
       </c>
       <c r="U35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W35" t="n">
+        <v>23</v>
+      </c>
+      <c r="X35" t="n">
         <v>21</v>
-      </c>
-      <c r="X35" t="n">
-        <v>19</v>
       </c>
       <c r="Y35" t="n">
         <v>29</v>
@@ -4545,10 +4545,10 @@
         <v>251</v>
       </c>
       <c r="AE35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
@@ -4604,16 +4604,16 @@
         <v>2.05</v>
       </c>
       <c r="J36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L36" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N36" t="n">
         <v>1.7</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
         <v>3.9</v>
       </c>
       <c r="I37" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
         <v>1.04</v>
       </c>
       <c r="K37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L37" t="n">
         <v>1.22</v>
@@ -4759,7 +4759,7 @@
         <v>7.5</v>
       </c>
       <c r="U37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V37" t="n">
         <v>8.5</v>
@@ -4780,19 +4780,19 @@
         <v>7.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC37" t="n">
         <v>51</v>
       </c>
       <c r="AD37" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE37" t="n">
         <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG37" t="n">
         <v>17</v>
@@ -4848,13 +4848,13 @@
         <v>6.25</v>
       </c>
       <c r="J38" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K38" t="n">
         <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M38" t="n">
         <v>3.25</v>
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J39" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L39" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M39" t="n">
         <v>3.2</v>
@@ -5018,7 +5018,7 @@
         <v>29</v>
       </c>
       <c r="Z39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA39" t="n">
         <v>6.5</v>
@@ -5449,25 +5449,25 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J43" t="n">
         <v>1.07</v>
       </c>
       <c r="K43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N43" t="n">
         <v>2.1</v>
@@ -5482,16 +5482,16 @@
         <v>2.63</v>
       </c>
       <c r="R43" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S43" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T43" t="n">
         <v>6.5</v>
       </c>
       <c r="U43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V43" t="n">
         <v>9</v>
@@ -5506,10 +5506,10 @@
         <v>29</v>
       </c>
       <c r="Z43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB43" t="n">
         <v>17</v>
@@ -5521,7 +5521,7 @@
         <v>351</v>
       </c>
       <c r="AE43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF43" t="n">
         <v>21</v>
@@ -5530,10 +5530,10 @@
         <v>15</v>
       </c>
       <c r="AH43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI43" t="n">
         <v>41</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>34</v>
       </c>
       <c r="AJ43" t="n">
         <v>41</v>
@@ -5936,7 +5936,7 @@
         <v>2.45</v>
       </c>
       <c r="H47" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="I47" t="n">
         <v>3.1</v>
@@ -5947,7 +5947,7 @@
         <v>1.36</v>
       </c>
       <c r="M47" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="N47" t="n">
         <v>2.05</v>
@@ -5968,7 +5968,7 @@
         <v>1.9</v>
       </c>
       <c r="T47" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U47" t="n">
         <v>12</v>
@@ -5980,16 +5980,16 @@
         <v>28</v>
       </c>
       <c r="X47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y47" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB47" t="n">
         <v>13</v>
@@ -7016,10 +7016,10 @@
         <v>3.75</v>
       </c>
       <c r="N56" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O56" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="P56" t="n">
         <v>1.36</v>
@@ -7248,22 +7248,22 @@
         <v>3.25</v>
       </c>
       <c r="J58" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L58" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M58" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O58" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P58" t="n">
         <v>1.44</v>
@@ -7370,22 +7370,22 @@
         <v>2.3</v>
       </c>
       <c r="J59" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K59" t="n">
         <v>11</v>
       </c>
       <c r="L59" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M59" t="n">
         <v>3.75</v>
       </c>
       <c r="N59" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="O59" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P59" t="n">
         <v>1.36</v>
@@ -7829,19 +7829,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H63" t="n">
         <v>3.2</v>
       </c>
       <c r="I63" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J63" t="n">
         <v>1.07</v>
       </c>
       <c r="K63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L63" t="n">
         <v>1.36</v>
@@ -7868,19 +7868,19 @@
         <v>1.91</v>
       </c>
       <c r="T63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V63" t="n">
         <v>11</v>
       </c>
       <c r="W63" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y63" t="n">
         <v>34</v>
@@ -7901,16 +7901,16 @@
         <v>301</v>
       </c>
       <c r="AE63" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF63" t="n">
         <v>11</v>
       </c>
       <c r="AG63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH63" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI63" t="n">
         <v>21</v>
@@ -8073,7 +8073,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>3.1</v>
@@ -8082,43 +8082,43 @@
         <v>4.5</v>
       </c>
       <c r="J65" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K65" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T65" t="n">
+        <v>5</v>
+      </c>
+      <c r="U65" t="n">
         <v>7</v>
       </c>
-      <c r="L65" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N65" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S65" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T65" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U65" t="n">
-        <v>7.5</v>
-      </c>
       <c r="V65" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W65" t="n">
         <v>15</v>
@@ -8130,7 +8130,7 @@
         <v>41</v>
       </c>
       <c r="Z65" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA65" t="n">
         <v>6.5</v>
@@ -8145,10 +8145,10 @@
         <v>501</v>
       </c>
       <c r="AE65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG65" t="n">
         <v>17</v>
@@ -8198,10 +8198,10 @@
         <v>4.33</v>
       </c>
       <c r="H66" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I66" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J66" t="n">
         <v>1.07</v>
@@ -8237,7 +8237,7 @@
         <v>11</v>
       </c>
       <c r="U66" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V66" t="n">
         <v>15</v>
@@ -8252,10 +8252,10 @@
         <v>41</v>
       </c>
       <c r="Z66" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB66" t="n">
         <v>17</v>
@@ -8276,7 +8276,7 @@
         <v>8.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI66" t="n">
         <v>15</v>
@@ -8570,7 +8570,7 @@
         <v>3.1</v>
       </c>
       <c r="N69" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O69" t="n">
         <v>1.8</v>
@@ -8579,7 +8579,7 @@
         <v>1.39</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R69" t="n">
         <v>1.65</v>
@@ -8588,7 +8588,7 @@
         <v>1.98</v>
       </c>
       <c r="T69" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="U69" t="n">
         <v>10</v>
@@ -8600,16 +8600,16 @@
         <v>19</v>
       </c>
       <c r="X69" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y69" t="n">
         <v>26</v>
       </c>
       <c r="Z69" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB69" t="n">
         <v>13.5</v>
@@ -8621,7 +8621,7 @@
         <v>450</v>
       </c>
       <c r="AE69" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF69" t="n">
         <v>18.5</v>
@@ -8633,10 +8633,10 @@
         <v>45</v>
       </c>
       <c r="AI69" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ69" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -8801,7 +8801,7 @@
         <v>1.07</v>
       </c>
       <c r="K71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L71" t="n">
         <v>1.36</v>
@@ -8911,10 +8911,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I72" t="n">
         <v>3.1</v>
@@ -8923,19 +8923,19 @@
         <v>1.08</v>
       </c>
       <c r="K72" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L72" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M72" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N72" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O72" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="P72" t="n">
         <v>1.5</v>
@@ -8944,13 +8944,13 @@
         <v>2.5</v>
       </c>
       <c r="R72" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S72" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U72" t="n">
         <v>11</v>
@@ -8968,7 +8968,7 @@
         <v>34</v>
       </c>
       <c r="Z72" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA72" t="n">
         <v>6</v>
@@ -8980,7 +8980,7 @@
         <v>51</v>
       </c>
       <c r="AD72" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE72" t="n">
         <v>8.5</v>
@@ -8995,7 +8995,7 @@
         <v>34</v>
       </c>
       <c r="AI72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ72" t="n">
         <v>41</v>
@@ -9042,22 +9042,22 @@
         <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L73" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M73" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N73" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O73" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P73" t="n">
         <v>1.44</v>
@@ -9167,13 +9167,13 @@
         <v>1.08</v>
       </c>
       <c r="K74" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L74" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M74" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N74" t="n">
         <v>2.25</v>
@@ -9298,10 +9298,10 @@
         <v>2.63</v>
       </c>
       <c r="N75" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O75" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P75" t="n">
         <v>1.53</v>
@@ -9521,13 +9521,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H77" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I77" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J77" t="n">
         <v>1.03</v>
@@ -9536,61 +9536,61 @@
         <v>15</v>
       </c>
       <c r="L77" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M77" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N77" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O77" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P77" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q77" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R77" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T77" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U77" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V77" t="n">
         <v>8.5</v>
       </c>
       <c r="W77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X77" t="n">
         <v>12</v>
       </c>
       <c r="Y77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z77" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA77" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB77" t="n">
         <v>15</v>
       </c>
       <c r="AC77" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD77" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE77" t="n">
         <v>17</v>
@@ -11064,10 +11064,10 @@
         <v>2.38</v>
       </c>
       <c r="J94" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K94" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L94" t="n">
         <v>1.4</v>
@@ -11189,19 +11189,19 @@
         <v>1.07</v>
       </c>
       <c r="K95" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L95" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M95" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N95" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O95" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P95" t="n">
         <v>1.5</v>
@@ -11564,10 +11564,10 @@
         <v>2.75</v>
       </c>
       <c r="N98" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O98" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P98" t="n">
         <v>1.5</v>
@@ -11665,19 +11665,19 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H99" t="n">
         <v>3.1</v>
       </c>
       <c r="I99" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J99" t="n">
         <v>1.08</v>
       </c>
       <c r="K99" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L99" t="n">
         <v>1.36</v>
@@ -11704,16 +11704,16 @@
         <v>1.8</v>
       </c>
       <c r="T99" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V99" t="n">
         <v>9.5</v>
       </c>
       <c r="W99" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X99" t="n">
         <v>19</v>
@@ -11722,7 +11722,7 @@
         <v>34</v>
       </c>
       <c r="Z99" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA99" t="n">
         <v>6</v>
@@ -11737,7 +11737,7 @@
         <v>351</v>
       </c>
       <c r="AE99" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF99" t="n">
         <v>17</v>
@@ -11749,7 +11749,7 @@
         <v>41</v>
       </c>
       <c r="AI99" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ99" t="n">
         <v>41</v>
@@ -11909,19 +11909,19 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H101" t="n">
         <v>3.4</v>
       </c>
       <c r="I101" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J101" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K101" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L101" t="n">
         <v>1.29</v>
@@ -12275,86 +12275,86 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>3.35</v>
       </c>
       <c r="I104" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M104" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="N104" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="O104" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="S104" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T104" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="U104" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V104" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="W104" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X104" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y104" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z104" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AA104" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB104" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AC104" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AD104" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE104" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF104" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG104" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH104" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI104" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105">
@@ -12503,86 +12503,86 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="H106" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="I106" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M106" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="N106" t="n">
         <v>1.75</v>
       </c>
       <c r="O106" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="S106" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="T106" t="n">
         <v>5.4</v>
       </c>
       <c r="U106" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="V106" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="W106" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="X106" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y106" t="n">
         <v>24</v>
       </c>
       <c r="Z106" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AA106" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB106" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC106" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD106" t="n">
         <v>500</v>
       </c>
       <c r="AE106" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF106" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG106" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH106" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI106" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ106" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107">
@@ -12870,22 +12870,22 @@
         <v>10</v>
       </c>
       <c r="J109" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K109" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L109" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M109" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N109" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O109" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P109" t="n">
         <v>1.25</v>
@@ -12894,13 +12894,13 @@
         <v>3.75</v>
       </c>
       <c r="R109" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S109" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T109" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U109" t="n">
         <v>7</v>
@@ -12909,16 +12909,16 @@
         <v>9</v>
       </c>
       <c r="W109" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X109" t="n">
         <v>11</v>
       </c>
       <c r="Y109" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA109" t="n">
         <v>11</v>
@@ -12930,13 +12930,13 @@
         <v>51</v>
       </c>
       <c r="AD109" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE109" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF109" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG109" t="n">
         <v>26</v>
@@ -12945,7 +12945,7 @@
         <v>101</v>
       </c>
       <c r="AI109" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ109" t="n">
         <v>51</v>
@@ -13104,9 +13104,15 @@
           <t>12 de Junio</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>4.3</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
@@ -13166,9 +13172,15 @@
           <t>Sol de America</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2.55</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
@@ -13241,7 +13253,7 @@
         <v>1.04</v>
       </c>
       <c r="K113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L113" t="n">
         <v>1.22</v>
@@ -13250,10 +13262,10 @@
         <v>4</v>
       </c>
       <c r="N113" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O113" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P113" t="n">
         <v>1.36</v>
@@ -13473,13 +13485,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H115" t="n">
         <v>3.25</v>
       </c>
       <c r="I115" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J115" t="n">
         <v>1.06</v>
@@ -13512,10 +13524,10 @@
         <v>2</v>
       </c>
       <c r="T115" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U115" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V115" t="n">
         <v>11</v>
@@ -13524,7 +13536,7 @@
         <v>29</v>
       </c>
       <c r="X115" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y115" t="n">
         <v>29</v>
@@ -13557,7 +13569,7 @@
         <v>23</v>
       </c>
       <c r="AI115" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ115" t="n">
         <v>29</v>
@@ -13839,19 +13851,19 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H118" t="n">
         <v>3.4</v>
       </c>
       <c r="I118" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J118" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K118" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L118" t="n">
         <v>1.3</v>
@@ -13887,10 +13899,10 @@
         <v>10</v>
       </c>
       <c r="W118" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X118" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y118" t="n">
         <v>29</v>
@@ -13917,10 +13929,10 @@
         <v>12</v>
       </c>
       <c r="AG118" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH118" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI118" t="n">
         <v>21</v>
@@ -14220,16 +14232,16 @@
         <v>7</v>
       </c>
       <c r="L121" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M121" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N121" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O121" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P121" t="n">
         <v>1.57</v>
@@ -14511,43 +14523,43 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H124" t="n">
         <v>3.45</v>
       </c>
       <c r="I124" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J124" t="n">
         <v>1.06</v>
       </c>
       <c r="K124" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="L124" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M124" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N124" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O124" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="P124" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R124" t="n">
         <v>1.7</v>
       </c>
       <c r="S124" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T124" t="n">
         <v>7.4</v>
@@ -14559,7 +14571,7 @@
         <v>8.75</v>
       </c>
       <c r="W124" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X124" t="n">
         <v>16.5</v>
@@ -14568,10 +14580,10 @@
         <v>27</v>
       </c>
       <c r="Z124" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA124" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB124" t="n">
         <v>14.5</v>
@@ -14583,10 +14595,10 @@
         <v>500</v>
       </c>
       <c r="AE124" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF124" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG124" t="n">
         <v>13</v>
@@ -14598,7 +14610,7 @@
         <v>35</v>
       </c>
       <c r="AJ124" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125">
@@ -15264,7 +15276,7 @@
         <v>8</v>
       </c>
       <c r="N130" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="O130" t="n">
         <v>3.5</v>
@@ -15365,66 +15377,66 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="H131" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I131" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M131" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N131" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O131" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P131" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R131" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="S131" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T131" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U131" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="V131" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W131" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="X131" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Y131" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Z131" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA131" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AB131" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC131" t="n">
         <v>250</v>
@@ -15436,19 +15448,19 @@
         <v>5.4</v>
       </c>
       <c r="AF131" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AG131" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH131" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI131" t="n">
         <v>13</v>
       </c>
       <c r="AJ131" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132">
@@ -15483,27 +15495,27 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I132" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M132" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N132" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="O132" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P132" t="n">
         <v>1.45</v>
@@ -15512,58 +15524,58 @@
         <v>2.37</v>
       </c>
       <c r="R132" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S132" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T132" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U132" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="V132" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W132" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X132" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="Y132" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z132" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AA132" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB132" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC132" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD132" t="n">
         <v>900</v>
       </c>
       <c r="AE132" t="n">
-        <v>10.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF132" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AG132" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH132" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AI132" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AJ132" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-25.xlsx
@@ -1400,10 +1400,10 @@
         <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O8" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1463,7 +1463,7 @@
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>34</v>
@@ -1504,10 +1504,10 @@
         <v>1.65</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1519,7 +1519,7 @@
         <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="N9" t="n">
         <v>1.65</v>
@@ -1528,31 +1528,31 @@
         <v>2.1</v>
       </c>
       <c r="P9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T9" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V9" t="n">
         <v>8</v>
       </c>
       <c r="W9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
         <v>22</v>
@@ -1561,25 +1561,25 @@
         <v>8.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD9" t="n">
         <v>400</v>
       </c>
       <c r="AE9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>80</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="H12" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1882,79 +1882,79 @@
         <v>8.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="N12" t="n">
         <v>1.65</v>
       </c>
       <c r="O12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="P12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S12" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="T12" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="U12" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="V12" t="n">
         <v>8.25</v>
       </c>
       <c r="W12" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="X12" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z12" t="n">
         <v>8.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AB12" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD12" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG12" t="n">
         <v>17</v>
       </c>
-      <c r="AF12" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>19</v>
-      </c>
       <c r="AH12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -2306,10 +2306,10 @@
         <v>1.67</v>
       </c>
       <c r="J17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L17" t="n">
         <v>1.2</v>
@@ -2440,10 +2440,10 @@
         <v>4.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P18" t="n">
         <v>1.3</v>
@@ -2541,49 +2541,49 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M19" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="N19" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
@@ -2595,10 +2595,10 @@
         <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
@@ -2610,10 +2610,10 @@
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -2794,10 +2794,10 @@
         <v>5.75</v>
       </c>
       <c r="J21" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L21" t="n">
         <v>1.5</v>
@@ -2809,7 +2809,7 @@
         <v>2.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
         <v>1.57</v>
@@ -3041,19 +3041,19 @@
         <v>1.06</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O23" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3083,10 +3083,10 @@
         <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA23" t="n">
         <v>6.5</v>
@@ -3098,7 +3098,7 @@
         <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE23" t="n">
         <v>12</v>
@@ -3163,7 +3163,7 @@
         <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.36</v>
@@ -3172,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O24" t="n">
         <v>1.67</v>
@@ -3288,16 +3288,16 @@
         <v>9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N25" t="n">
         <v>2.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3315,7 +3315,7 @@
         <v>7</v>
       </c>
       <c r="U25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V25" t="n">
         <v>9</v>
@@ -3342,7 +3342,7 @@
         <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -3416,7 +3416,7 @@
         <v>4.33</v>
       </c>
       <c r="N26" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O26" t="n">
         <v>2.15</v>
@@ -3529,19 +3529,19 @@
         <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L27" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O27" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P27" t="n">
         <v>1.25</v>
@@ -3875,21 +3875,21 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="N30" t="n">
         <v>1.98</v>
@@ -3907,22 +3907,22 @@
         <v>1.82</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U30" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="V30" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W30" t="n">
         <v>55</v>
       </c>
       <c r="X30" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y30" t="n">
         <v>45</v>
@@ -3931,7 +3931,7 @@
         <v>8.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB30" t="n">
         <v>15.5</v>
@@ -3943,19 +3943,19 @@
         <v>700</v>
       </c>
       <c r="AE30" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG30" t="n">
         <v>8.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ30" t="n">
         <v>30</v>
@@ -4002,28 +4002,28 @@
         <v>3.8</v>
       </c>
       <c r="J31" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P31" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R31" t="n">
         <v>1.83</v>
@@ -4035,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="U31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V31" t="n">
         <v>9</v>
@@ -4044,28 +4044,28 @@
         <v>17</v>
       </c>
       <c r="X31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y31" t="n">
         <v>29</v>
       </c>
       <c r="Z31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC31" t="n">
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF31" t="n">
         <v>19</v>
@@ -4297,7 +4297,7 @@
         <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="J34" t="n">
         <v>1.04</v>
@@ -4318,10 +4318,10 @@
         <v>2.05</v>
       </c>
       <c r="P34" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R34" t="n">
         <v>1.62</v>
@@ -4330,13 +4330,13 @@
         <v>2.2</v>
       </c>
       <c r="T34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U34" t="n">
         <v>12</v>
       </c>
       <c r="V34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W34" t="n">
         <v>21</v>
@@ -4348,13 +4348,13 @@
         <v>23</v>
       </c>
       <c r="Z34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC34" t="n">
         <v>41</v>
@@ -4363,7 +4363,7 @@
         <v>151</v>
       </c>
       <c r="AE34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF34" t="n">
         <v>17</v>
@@ -4372,7 +4372,7 @@
         <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI34" t="n">
         <v>23</v>
@@ -4428,16 +4428,16 @@
         <v>15</v>
       </c>
       <c r="L35" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N35" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O35" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P35" t="n">
         <v>1.3</v>
@@ -4544,10 +4544,10 @@
         <v>2.7</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L36" t="n">
         <v>1.3</v>
@@ -4562,10 +4562,10 @@
         <v>1.83</v>
       </c>
       <c r="P36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R36" t="n">
         <v>1.8</v>
@@ -4574,7 +4574,7 @@
         <v>1.91</v>
       </c>
       <c r="T36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U36" t="n">
         <v>12</v>
@@ -4592,7 +4592,7 @@
         <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA36" t="n">
         <v>6.5</v>
@@ -4607,7 +4607,7 @@
         <v>251</v>
       </c>
       <c r="AE36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF36" t="n">
         <v>13</v>
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>3.6</v>
@@ -4666,10 +4666,10 @@
         <v>2.05</v>
       </c>
       <c r="J37" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L37" t="n">
         <v>1.2</v>
@@ -4711,7 +4711,7 @@
         <v>23</v>
       </c>
       <c r="Y37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z37" t="n">
         <v>13</v>
@@ -4732,16 +4732,16 @@
         <v>9.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
         <v>9</v>
       </c>
       <c r="AH37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ37" t="n">
         <v>23</v>
@@ -4779,7 +4779,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="H38" t="n">
         <v>3.9</v>
@@ -4901,7 +4901,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H39" t="n">
         <v>3.6</v>
@@ -4922,10 +4922,10 @@
         <v>3.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O39" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P39" t="n">
         <v>1.44</v>
@@ -5029,7 +5029,7 @@
         <v>3.3</v>
       </c>
       <c r="I40" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="J40" t="n">
         <v>1.07</v>
@@ -5068,7 +5068,7 @@
         <v>11</v>
       </c>
       <c r="V40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W40" t="n">
         <v>23</v>
@@ -5160,10 +5160,10 @@
         <v>7</v>
       </c>
       <c r="L41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M41" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N41" t="n">
         <v>2.6</v>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H42" t="n">
         <v>3.75</v>
@@ -5389,19 +5389,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J43" t="n">
         <v>1.03</v>
       </c>
       <c r="K43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L43" t="n">
         <v>1.17</v>
@@ -5422,10 +5422,10 @@
         <v>3.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S43" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T43" t="n">
         <v>8.5</v>
@@ -5434,10 +5434,10 @@
         <v>7.5</v>
       </c>
       <c r="V43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X43" t="n">
         <v>11</v>
@@ -5449,16 +5449,16 @@
         <v>15</v>
       </c>
       <c r="AA43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC43" t="n">
         <v>51</v>
       </c>
       <c r="AD43" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE43" t="n">
         <v>23</v>
@@ -5470,7 +5470,7 @@
         <v>23</v>
       </c>
       <c r="AH43" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="n">
         <v>51</v>
@@ -5511,7 +5511,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H44" t="n">
         <v>3.5</v>
@@ -5633,7 +5633,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H45" t="n">
         <v>3.4</v>
@@ -5877,10 +5877,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I47" t="n">
         <v>3.2</v>
@@ -5888,22 +5888,22 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M47" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="N47" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O47" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P47" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R47" t="n">
         <v>1.8</v>
@@ -5912,7 +5912,7 @@
         <v>1.8</v>
       </c>
       <c r="T47" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U47" t="n">
         <v>10</v>
@@ -5921,19 +5921,19 @@
         <v>9</v>
       </c>
       <c r="W47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X47" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y47" t="n">
         <v>32</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA47" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB47" t="n">
         <v>15</v>
@@ -5945,16 +5945,16 @@
         <v>700</v>
       </c>
       <c r="AE47" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF47" t="n">
         <v>16</v>
       </c>
       <c r="AG47" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH47" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="n">
         <v>30</v>
@@ -5998,21 +5998,21 @@
         <v>2.45</v>
       </c>
       <c r="H48" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="I48" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M48" t="n">
         <v>2.7</v>
       </c>
       <c r="N48" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O48" t="n">
         <v>1.62</v>
@@ -6030,28 +6030,28 @@
         <v>1.9</v>
       </c>
       <c r="T48" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U48" t="n">
         <v>12</v>
       </c>
       <c r="V48" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W48" t="n">
         <v>28</v>
       </c>
       <c r="X48" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y48" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AA48" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB48" t="n">
         <v>13</v>
@@ -6063,19 +6063,19 @@
         <v>500</v>
       </c>
       <c r="AE48" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF48" t="n">
         <v>16.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH48" t="n">
         <v>45</v>
       </c>
       <c r="AI48" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ48" t="n">
         <v>35</v>
@@ -6116,7 +6116,7 @@
         <v>2.3</v>
       </c>
       <c r="H49" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I49" t="n">
         <v>3.25</v>
@@ -6148,10 +6148,10 @@
         <v>1.7</v>
       </c>
       <c r="T49" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="U49" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="V49" t="n">
         <v>9.25</v>
@@ -6160,7 +6160,7 @@
         <v>24</v>
       </c>
       <c r="X49" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y49" t="n">
         <v>37</v>
@@ -6169,7 +6169,7 @@
         <v>6.7</v>
       </c>
       <c r="AA49" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB49" t="n">
         <v>16</v>
@@ -6181,13 +6181,13 @@
         <v>900</v>
       </c>
       <c r="AE49" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AF49" t="n">
         <v>16</v>
       </c>
       <c r="AG49" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH49" t="n">
         <v>45</v>
@@ -6196,7 +6196,7 @@
         <v>35</v>
       </c>
       <c r="AJ49" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
@@ -6231,13 +6231,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -6245,7 +6245,7 @@
         <v>1.37</v>
       </c>
       <c r="M50" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="N50" t="n">
         <v>2.07</v>
@@ -6266,31 +6266,31 @@
         <v>1.8</v>
       </c>
       <c r="T50" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U50" t="n">
         <v>15</v>
       </c>
       <c r="V50" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W50" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X50" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y50" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z50" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AA50" t="n">
         <v>5.9</v>
       </c>
       <c r="AB50" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC50" t="n">
         <v>75</v>
@@ -6299,13 +6299,13 @@
         <v>700</v>
       </c>
       <c r="AE50" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AF50" t="n">
         <v>11</v>
       </c>
       <c r="AG50" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH50" t="n">
         <v>25</v>
@@ -6314,7 +6314,7 @@
         <v>21</v>
       </c>
       <c r="AJ50" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -6352,7 +6352,7 @@
         <v>2.27</v>
       </c>
       <c r="H51" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>3.15</v>
@@ -6384,7 +6384,7 @@
         <v>1.75</v>
       </c>
       <c r="T51" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="U51" t="n">
         <v>10.25</v>
@@ -6396,7 +6396,7 @@
         <v>23</v>
       </c>
       <c r="X51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y51" t="n">
         <v>35</v>
@@ -6408,19 +6408,19 @@
         <v>5.9</v>
       </c>
       <c r="AB51" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC51" t="n">
         <v>80</v>
       </c>
       <c r="AD51" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE51" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG51" t="n">
         <v>11.25</v>
@@ -6523,7 +6523,7 @@
         <v>7.8</v>
       </c>
       <c r="AA52" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB52" t="n">
         <v>16</v>
@@ -6547,7 +6547,7 @@
         <v>22</v>
       </c>
       <c r="AI52" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ52" t="n">
         <v>35</v>
@@ -6588,10 +6588,10 @@
         <v>1.91</v>
       </c>
       <c r="H53" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -6623,46 +6623,46 @@
         <v>5.6</v>
       </c>
       <c r="U53" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="V53" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W53" t="n">
         <v>16</v>
       </c>
       <c r="X53" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z53" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA53" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB53" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC53" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD53" t="n">
         <v>101</v>
       </c>
       <c r="AE53" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF53" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG53" t="n">
         <v>14</v>
       </c>
       <c r="AH53" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI53" t="n">
         <v>45</v>
@@ -6703,13 +6703,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="H54" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I54" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -6726,10 +6726,10 @@
         <v>1.52</v>
       </c>
       <c r="P54" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R54" t="n">
         <v>1.88</v>
@@ -6738,28 +6738,28 @@
         <v>1.72</v>
       </c>
       <c r="T54" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="U54" t="n">
         <v>14.5</v>
       </c>
       <c r="V54" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W54" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X54" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y54" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z54" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA54" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB54" t="n">
         <v>15.5</v>
@@ -6771,22 +6771,22 @@
         <v>900</v>
       </c>
       <c r="AE54" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AF54" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AG54" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH54" t="n">
         <v>26</v>
       </c>
       <c r="AI54" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ54" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55">
@@ -6939,27 +6939,27 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M56" t="n">
         <v>2.75</v>
       </c>
       <c r="N56" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O56" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P56" t="n">
         <v>1.42</v>
@@ -6968,37 +6968,37 @@
         <v>2.35</v>
       </c>
       <c r="R56" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S56" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="T56" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="U56" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="V56" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="W56" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="X56" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z56" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AA56" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB56" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC56" t="n">
         <v>60</v>
@@ -7007,22 +7007,22 @@
         <v>500</v>
       </c>
       <c r="AE56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG56" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH56" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ56" t="n">
         <v>30</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -7090,7 +7090,7 @@
         <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S57" t="n">
         <v>2</v>
@@ -7212,10 +7212,10 @@
         <v>3.5</v>
       </c>
       <c r="R58" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S58" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T58" t="n">
         <v>12</v>
@@ -7313,7 +7313,7 @@
         <v>1.07</v>
       </c>
       <c r="K59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L59" t="n">
         <v>1.36</v>
@@ -7334,10 +7334,10 @@
         <v>2.63</v>
       </c>
       <c r="R59" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S59" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -7355,7 +7355,7 @@
         <v>19</v>
       </c>
       <c r="Y59" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z59" t="n">
         <v>8.5</v>
@@ -7373,7 +7373,7 @@
         <v>301</v>
       </c>
       <c r="AE59" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF59" t="n">
         <v>15</v>
@@ -7423,37 +7423,37 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I60" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J60" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L60" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M60" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N60" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O60" t="n">
         <v>2</v>
       </c>
       <c r="P60" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q60" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R60" t="n">
         <v>1.67</v>
@@ -7465,13 +7465,13 @@
         <v>11</v>
       </c>
       <c r="U60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V60" t="n">
         <v>11</v>
       </c>
       <c r="W60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X60" t="n">
         <v>23</v>
@@ -7480,10 +7480,10 @@
         <v>29</v>
       </c>
       <c r="Z60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB60" t="n">
         <v>13</v>
@@ -7501,16 +7501,16 @@
         <v>12</v>
       </c>
       <c r="AG60" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH60" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>23</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="61">
@@ -7545,21 +7545,21 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H61" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I61" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M61" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="N61" t="n">
         <v>1.65</v>
@@ -7570,55 +7570,55 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S61" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T61" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U61" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="V61" t="n">
         <v>7.9</v>
       </c>
       <c r="W61" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="X61" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y61" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z61" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AB61" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC61" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD61" t="n">
         <v>350</v>
       </c>
       <c r="AE61" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG61" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH61" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI61" t="n">
         <v>40</v>
@@ -8144,10 +8144,10 @@
         <v>4.5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K66" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L66" t="n">
         <v>1.5</v>
@@ -8385,39 +8385,39 @@
         <v>3.45</v>
       </c>
       <c r="I68" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M68" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="N68" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="O68" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P68" t="n">
         <v>1.4</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R68" t="n">
         <v>1.78</v>
       </c>
       <c r="S68" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T68" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="U68" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V68" t="n">
         <v>8.75</v>
@@ -8426,16 +8426,16 @@
         <v>18</v>
       </c>
       <c r="X68" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y68" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z68" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB68" t="n">
         <v>15.5</v>
@@ -8450,13 +8450,13 @@
         <v>9.5</v>
       </c>
       <c r="AF68" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG68" t="n">
         <v>11.75</v>
       </c>
       <c r="AH68" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI68" t="n">
         <v>30</v>
@@ -8508,13 +8508,13 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M69" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N69" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O69" t="n">
         <v>1.82</v>
@@ -8526,13 +8526,13 @@
         <v>2.6</v>
       </c>
       <c r="R69" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S69" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T69" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="U69" t="n">
         <v>8</v>
@@ -8544,10 +8544,10 @@
         <v>13.5</v>
       </c>
       <c r="X69" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y69" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z69" t="n">
         <v>10.75</v>
@@ -8615,21 +8615,21 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="H70" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I70" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M70" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N70" t="n">
         <v>1.82</v>
@@ -8644,10 +8644,10 @@
         <v>2.57</v>
       </c>
       <c r="R70" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S70" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T70" t="n">
         <v>7.9</v>
@@ -8665,7 +8665,7 @@
         <v>16</v>
       </c>
       <c r="Y70" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z70" t="n">
         <v>10.25</v>
@@ -8674,7 +8674,7 @@
         <v>6.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC70" t="n">
         <v>60</v>
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="H71" t="n">
         <v>3.1</v>
       </c>
       <c r="I71" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -8762,28 +8762,28 @@
         <v>2.47</v>
       </c>
       <c r="R71" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S71" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T71" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="U71" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V71" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W71" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X71" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y71" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z71" t="n">
         <v>9.25</v>
@@ -8801,19 +8801,19 @@
         <v>450</v>
       </c>
       <c r="AE71" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF71" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG71" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH71" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI71" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ71" t="n">
         <v>30</v>
@@ -9470,10 +9470,10 @@
         <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K77" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L77" t="n">
         <v>1.33</v>
@@ -9720,16 +9720,16 @@
         <v>9</v>
       </c>
       <c r="L79" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M79" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N79" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O79" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P79" t="n">
         <v>1.44</v>
@@ -11504,10 +11504,10 @@
         <v>3.5</v>
       </c>
       <c r="N98" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O98" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P98" t="n">
         <v>1.4</v>
@@ -11870,10 +11870,10 @@
         <v>4</v>
       </c>
       <c r="N101" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O101" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P101" t="n">
         <v>1.33</v>
@@ -12215,10 +12215,10 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H104" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I104" t="n">
         <v>5.25</v>
@@ -12227,19 +12227,19 @@
         <v>1.07</v>
       </c>
       <c r="K104" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L104" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M104" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N104" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O104" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P104" t="n">
         <v>1.44</v>
@@ -12248,19 +12248,19 @@
         <v>2.63</v>
       </c>
       <c r="R104" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S104" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T104" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U104" t="n">
         <v>7</v>
       </c>
       <c r="V104" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W104" t="n">
         <v>12</v>
@@ -12269,10 +12269,10 @@
         <v>15</v>
       </c>
       <c r="Y104" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z104" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA104" t="n">
         <v>7</v>
@@ -12287,7 +12287,7 @@
         <v>351</v>
       </c>
       <c r="AE104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF104" t="n">
         <v>26</v>
@@ -12337,10 +12337,10 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H105" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I105" t="n">
         <v>3.8</v>
@@ -12348,66 +12348,66 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M105" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N105" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O105" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="S105" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="T105" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U105" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="V105" t="n">
         <v>7</v>
-      </c>
-      <c r="U105" t="n">
-        <v>8</v>
-      </c>
-      <c r="V105" t="n">
-        <v>6.9</v>
       </c>
       <c r="W105" t="n">
         <v>13</v>
       </c>
       <c r="X105" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y105" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA105" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB105" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC105" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD105" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE105" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF105" t="n">
         <v>17.5</v>
       </c>
       <c r="AG105" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH105" t="n">
         <v>45</v>
@@ -12565,13 +12565,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="H107" t="n">
         <v>4.05</v>
       </c>
       <c r="I107" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -12585,21 +12585,21 @@
         <v>1.75</v>
       </c>
       <c r="O107" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="S107" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="T107" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U107" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="V107" t="n">
         <v>7</v>
@@ -12608,19 +12608,19 @@
         <v>7.4</v>
       </c>
       <c r="X107" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y107" t="n">
         <v>23</v>
       </c>
       <c r="Z107" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA107" t="n">
         <v>7.1</v>
       </c>
       <c r="AB107" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC107" t="n">
         <v>80</v>
@@ -12632,19 +12632,19 @@
         <v>14</v>
       </c>
       <c r="AF107" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG107" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH107" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI107" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ107" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108">
@@ -12721,7 +12721,7 @@
         <v>10</v>
       </c>
       <c r="U108" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V108" t="n">
         <v>8.5</v>
@@ -12733,7 +12733,7 @@
         <v>11</v>
       </c>
       <c r="Y108" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z108" t="n">
         <v>21</v>
@@ -12742,7 +12742,7 @@
         <v>10</v>
       </c>
       <c r="AB108" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC108" t="n">
         <v>41</v>
@@ -12810,10 +12810,10 @@
         <v>4.75</v>
       </c>
       <c r="J109" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K109" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L109" t="n">
         <v>1.11</v>
@@ -12876,10 +12876,10 @@
         <v>21</v>
       </c>
       <c r="AF109" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH109" t="n">
         <v>51</v>
@@ -13167,21 +13167,21 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H112" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I112" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M112" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="N112" t="n">
         <v>2.34</v>
@@ -13190,25 +13190,25 @@
         <v>1.53</v>
       </c>
       <c r="P112" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q112" t="n">
         <v>2.4</v>
       </c>
       <c r="R112" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="S112" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="T112" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="U112" t="n">
         <v>6</v>
       </c>
       <c r="V112" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="W112" t="n">
         <v>12</v>
@@ -13220,13 +13220,13 @@
         <v>35</v>
       </c>
       <c r="Z112" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AA112" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AB112" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC112" t="n">
         <v>101</v>
@@ -13235,10 +13235,10 @@
         <v>101</v>
       </c>
       <c r="AE112" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AF112" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG112" t="n">
         <v>13</v>
@@ -13419,7 +13419,7 @@
         <v>1.04</v>
       </c>
       <c r="K114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L114" t="n">
         <v>1.22</v>
@@ -13773,13 +13773,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>3.25</v>
       </c>
       <c r="I117" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J117" t="n">
         <v>1.04</v>
@@ -13818,7 +13818,7 @@
         <v>17</v>
       </c>
       <c r="V117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W117" t="n">
         <v>34</v>
@@ -13842,7 +13842,7 @@
         <v>41</v>
       </c>
       <c r="AD117" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE117" t="n">
         <v>10</v>
@@ -14026,10 +14026,10 @@
         <v>2.5</v>
       </c>
       <c r="J119" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L119" t="n">
         <v>1.3</v>
@@ -14624,10 +14624,10 @@
         <v>3.1</v>
       </c>
       <c r="J124" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K124" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L124" t="n">
         <v>1.4</v>
@@ -14672,7 +14672,7 @@
         <v>34</v>
       </c>
       <c r="Z124" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA124" t="n">
         <v>6.5</v>
@@ -14779,7 +14779,7 @@
         <v>6</v>
       </c>
       <c r="U125" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V125" t="n">
         <v>10</v>
@@ -14800,7 +14800,7 @@
         <v>6</v>
       </c>
       <c r="AB125" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC125" t="n">
         <v>67</v>
@@ -14809,7 +14809,7 @@
         <v>1000</v>
       </c>
       <c r="AE125" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF125" t="n">
         <v>17</v>
@@ -14859,94 +14859,94 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="H126" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I126" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J126" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K126" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="L126" t="n">
         <v>1.42</v>
       </c>
       <c r="M126" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="N126" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="O126" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P126" t="n">
         <v>1.47</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R126" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S126" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T126" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U126" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V126" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W126" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="X126" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y126" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z126" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AA126" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AB126" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC126" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD126" t="n">
         <v>1000</v>
       </c>
       <c r="AE126" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF126" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG126" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH126" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AI126" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ126" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127">
@@ -15165,13 +15165,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H129" t="n">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="I129" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="J129" t="n">
         <v>1.01</v>
@@ -15180,43 +15180,43 @@
         <v>34</v>
       </c>
       <c r="L129" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="M129" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N129" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="O129" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P129" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Q129" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="R129" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S129" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T129" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="U129" t="n">
+        <v>67</v>
+      </c>
+      <c r="V129" t="n">
+        <v>29</v>
+      </c>
+      <c r="W129" t="n">
+        <v>126</v>
+      </c>
+      <c r="X129" t="n">
         <v>51</v>
-      </c>
-      <c r="V129" t="n">
-        <v>23</v>
-      </c>
-      <c r="W129" t="n">
-        <v>81</v>
-      </c>
-      <c r="X129" t="n">
-        <v>41</v>
       </c>
       <c r="Y129" t="n">
         <v>41</v>
@@ -15225,34 +15225,34 @@
         <v>34</v>
       </c>
       <c r="AA129" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB129" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC129" t="n">
         <v>41</v>
       </c>
       <c r="AD129" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE129" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF129" t="n">
         <v>11</v>
       </c>
       <c r="AG129" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH129" t="n">
         <v>10</v>
-      </c>
-      <c r="AH129" t="n">
-        <v>11</v>
       </c>
       <c r="AI129" t="n">
         <v>10</v>
       </c>
       <c r="AJ129" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130">
@@ -15653,7 +15653,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H133" t="n">
         <v>3.2</v>
@@ -15662,10 +15662,10 @@
         <v>4</v>
       </c>
       <c r="J133" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K133" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L133" t="n">
         <v>1.36</v>
@@ -15686,10 +15686,10 @@
         <v>2.63</v>
       </c>
       <c r="R133" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S133" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T133" t="n">
         <v>6.5</v>
@@ -15707,10 +15707,10 @@
         <v>17</v>
       </c>
       <c r="Y133" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z133" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA133" t="n">
         <v>6.5</v>
@@ -15722,7 +15722,7 @@
         <v>51</v>
       </c>
       <c r="AD133" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE133" t="n">
         <v>11</v>
@@ -15737,7 +15737,7 @@
         <v>41</v>
       </c>
       <c r="AI133" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ133" t="n">
         <v>41</v>
@@ -16141,63 +16141,63 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="H137" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I137" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M137" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="N137" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O137" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P137" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="R137" t="n">
         <v>2.7</v>
       </c>
       <c r="S137" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T137" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="U137" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V137" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W137" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="X137" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Y137" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Z137" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA137" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB137" t="n">
         <v>40</v>
@@ -16209,22 +16209,22 @@
         <v>101</v>
       </c>
       <c r="AE137" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="AF137" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AG137" t="n">
         <v>10</v>
       </c>
       <c r="AH137" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AI137" t="n">
         <v>14.5</v>
       </c>
       <c r="AJ137" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138">

--- a/Jogos_da_Semana_FlashScore_2025-04-25.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-25.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
@@ -659,10 +659,10 @@
         <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M2" t="n">
         <v>5.5</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -778,13 +778,13 @@
         <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
         <v>21</v>
       </c>
       <c r="L3" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M3" t="n">
         <v>5.5</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
         <v>1.03</v>
@@ -924,16 +924,16 @@
         <v>3.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V4" t="n">
         <v>13</v>
@@ -945,13 +945,13 @@
         <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
         <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB4" t="n">
         <v>12</v>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H5" t="n">
         <v>5.75</v>
@@ -1338,10 +1338,10 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
         <v>34</v>
@@ -2196,7 +2196,7 @@
         <v>4.33</v>
       </c>
       <c r="N16" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O16" t="n">
         <v>2.15</v>
@@ -2428,13 +2428,13 @@
         <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K18" t="n">
         <v>13</v>
       </c>
       <c r="L18" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M18" t="n">
         <v>4.33</v>
@@ -2544,22 +2544,22 @@
         <v>1.55</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
         <v>6.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K19" t="n">
         <v>9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N19" t="n">
         <v>2.05</v>
@@ -2568,10 +2568,10 @@
         <v>1.75</v>
       </c>
       <c r="P19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R19" t="n">
         <v>2.1</v>
@@ -2604,7 +2604,7 @@
         <v>7.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
         <v>67</v>
@@ -3273,13 +3273,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
         <v>1.03</v>
@@ -3288,28 +3288,28 @@
         <v>15</v>
       </c>
       <c r="L25" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.67</v>
       </c>
-      <c r="O25" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T25" t="n">
         <v>8.5</v>
@@ -3877,13 +3877,13 @@
         <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J30" t="n">
         <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.3</v>
@@ -3892,10 +3892,10 @@
         <v>3.4</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O30" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -3913,16 +3913,16 @@
         <v>7</v>
       </c>
       <c r="U30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V30" t="n">
         <v>9</v>
       </c>
       <c r="W30" t="n">
+        <v>15</v>
+      </c>
+      <c r="X30" t="n">
         <v>17</v>
-      </c>
-      <c r="X30" t="n">
-        <v>15</v>
       </c>
       <c r="Y30" t="n">
         <v>29</v>
@@ -3940,13 +3940,13 @@
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE30" t="n">
         <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
@@ -4169,13 +4169,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="J33" t="n">
         <v>1.04</v>
@@ -4208,19 +4208,19 @@
         <v>2.2</v>
       </c>
       <c r="T33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U33" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W33" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
         <v>23</v>
@@ -4229,10 +4229,10 @@
         <v>13</v>
       </c>
       <c r="AA33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
         <v>41</v>
@@ -4241,19 +4241,19 @@
         <v>151</v>
       </c>
       <c r="AE33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF33" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ33" t="n">
         <v>29</v>
@@ -4306,16 +4306,16 @@
         <v>15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O34" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P34" t="n">
         <v>1.3</v>
@@ -4425,7 +4425,7 @@
         <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.3</v>
@@ -4470,7 +4470,7 @@
         <v>29</v>
       </c>
       <c r="Z35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA35" t="n">
         <v>6.5</v>
@@ -4678,10 +4678,10 @@
         <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O37" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P37" t="n">
         <v>1.33</v>
@@ -4910,10 +4910,10 @@
         <v>2.8</v>
       </c>
       <c r="J39" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L39" t="n">
         <v>1.33</v>
@@ -4922,10 +4922,10 @@
         <v>3.4</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O39" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P39" t="n">
         <v>1.4</v>
@@ -4946,7 +4946,7 @@
         <v>12</v>
       </c>
       <c r="V39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W39" t="n">
         <v>23</v>
@@ -4973,7 +4973,7 @@
         <v>251</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF39" t="n">
         <v>13</v>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H41" t="n">
         <v>3.75</v>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>4.5</v>
@@ -5398,10 +5398,10 @@
         <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L43" t="n">
         <v>1.33</v>
@@ -5879,7 +5879,7 @@
         <v>2.8</v>
       </c>
       <c r="I47" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -5908,22 +5908,22 @@
         <v>1.9</v>
       </c>
       <c r="T47" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="U47" t="n">
         <v>12</v>
       </c>
       <c r="V47" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W47" t="n">
         <v>28</v>
       </c>
       <c r="X47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y47" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z47" t="n">
         <v>7.6</v>
@@ -5941,10 +5941,10 @@
         <v>500</v>
       </c>
       <c r="AE47" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF47" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG47" t="n">
         <v>10.5</v>
@@ -5953,7 +5953,7 @@
         <v>45</v>
       </c>
       <c r="AI47" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ47" t="n">
         <v>35</v>
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -6138,22 +6138,22 @@
         <v>2.32</v>
       </c>
       <c r="R49" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S49" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T49" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="U49" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="V49" t="n">
         <v>10.75</v>
       </c>
       <c r="W49" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X49" t="n">
         <v>28</v>
@@ -6162,28 +6162,28 @@
         <v>40</v>
       </c>
       <c r="Z49" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA49" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB49" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="n">
         <v>700</v>
       </c>
       <c r="AE49" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AF49" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG49" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH49" t="n">
         <v>25</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="H53" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="I53" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -6604,67 +6604,67 @@
         <v>1.52</v>
       </c>
       <c r="P53" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R53" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S53" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T53" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="U53" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="V53" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="W53" t="n">
+        <v>35</v>
+      </c>
+      <c r="X53" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y53" t="n">
         <v>40</v>
       </c>
-      <c r="X53" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>45</v>
-      </c>
       <c r="Z53" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA53" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC53" t="n">
         <v>90</v>
       </c>
       <c r="AD53" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE53" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AF53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG53" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH53" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI53" t="n">
         <v>26</v>
       </c>
-      <c r="AI53" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ53" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
@@ -7301,13 +7301,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H59" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="J59" t="n">
         <v>1.04</v>
@@ -7322,10 +7322,10 @@
         <v>4</v>
       </c>
       <c r="N59" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P59" t="n">
         <v>1.33</v>
@@ -7334,25 +7334,25 @@
         <v>3.25</v>
       </c>
       <c r="R59" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S59" t="n">
         <v>2.1</v>
       </c>
       <c r="T59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W59" t="n">
         <v>41</v>
       </c>
       <c r="X59" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y59" t="n">
         <v>34</v>
@@ -7376,13 +7376,13 @@
         <v>8.5</v>
       </c>
       <c r="AF59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI59" t="n">
         <v>15</v>
@@ -7423,86 +7423,86 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I60" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M60" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="N60" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O60" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S60" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T60" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U60" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="V60" t="n">
         <v>7.9</v>
       </c>
       <c r="W60" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="X60" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y60" t="n">
         <v>21</v>
       </c>
       <c r="Z60" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA60" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC60" t="n">
         <v>55</v>
       </c>
       <c r="AD60" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE60" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AG60" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH60" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ60" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
@@ -7537,90 +7537,90 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>3.35</v>
       </c>
       <c r="I61" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M61" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="N61" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S61" t="n">
         <v>1.82</v>
       </c>
-      <c r="O61" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P61" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1.98</v>
-      </c>
       <c r="T61" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="U61" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="V61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W61" t="n">
+        <v>50</v>
+      </c>
+      <c r="X61" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y61" t="n">
         <v>40</v>
       </c>
-      <c r="X61" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>32</v>
-      </c>
       <c r="Z61" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AA61" t="n">
         <v>6.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AD61" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AE61" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AF61" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="AG61" t="n">
         <v>8.75</v>
       </c>
       <c r="AH61" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ61" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
@@ -7655,86 +7655,86 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="H62" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I62" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M62" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="N62" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O62" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T62" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U62" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="V62" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W62" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X62" t="n">
         <v>14</v>
-      </c>
-      <c r="X62" t="n">
-        <v>13</v>
       </c>
       <c r="Y62" t="n">
         <v>22</v>
       </c>
       <c r="Z62" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AB62" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC62" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD62" t="n">
         <v>350</v>
       </c>
       <c r="AE62" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AF62" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AG62" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI62" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ62" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
@@ -7793,7 +7793,7 @@
         <v>2.15</v>
       </c>
       <c r="O63" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P63" t="n">
         <v>1.44</v>
@@ -7802,10 +7802,10 @@
         <v>2.63</v>
       </c>
       <c r="R63" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S63" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T63" t="n">
         <v>8.5</v>
@@ -7915,7 +7915,7 @@
         <v>2.4</v>
       </c>
       <c r="O64" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P64" t="n">
         <v>1.57</v>
@@ -7927,7 +7927,7 @@
         <v>2.1</v>
       </c>
       <c r="S64" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T64" t="n">
         <v>6</v>
@@ -8851,7 +8851,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>3.1</v>
@@ -10385,7 +10385,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H89" t="n">
         <v>3.1</v>
@@ -10412,31 +10412,31 @@
         <v>1.5</v>
       </c>
       <c r="P89" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R89" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S89" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T89" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U89" t="n">
         <v>9</v>
       </c>
       <c r="V89" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W89" t="n">
+        <v>19</v>
+      </c>
+      <c r="X89" t="n">
         <v>21</v>
-      </c>
-      <c r="X89" t="n">
-        <v>23</v>
       </c>
       <c r="Y89" t="n">
         <v>41</v>
@@ -10448,19 +10448,19 @@
         <v>6</v>
       </c>
       <c r="AB89" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC89" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD89" t="n">
         <v>101</v>
       </c>
       <c r="AE89" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF89" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG89" t="n">
         <v>13</v>
@@ -10472,7 +10472,7 @@
         <v>34</v>
       </c>
       <c r="AJ89" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90">
@@ -10513,7 +10513,7 @@
         <v>3.1</v>
       </c>
       <c r="I90" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J90" t="n">
         <v>1.08</v>
@@ -10522,22 +10522,22 @@
         <v>8</v>
       </c>
       <c r="L90" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M90" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N90" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O90" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P90" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R90" t="n">
         <v>2</v>
@@ -10546,7 +10546,7 @@
         <v>1.75</v>
       </c>
       <c r="T90" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U90" t="n">
         <v>9</v>
@@ -10564,7 +10564,7 @@
         <v>34</v>
       </c>
       <c r="Z90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA90" t="n">
         <v>6</v>
@@ -10629,13 +10629,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H91" t="n">
         <v>3.1</v>
       </c>
       <c r="I91" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J91" t="n">
         <v>1.1</v>
@@ -10656,16 +10656,16 @@
         <v>1.53</v>
       </c>
       <c r="P91" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R91" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S91" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T91" t="n">
         <v>6</v>
@@ -10677,16 +10677,16 @@
         <v>9.5</v>
       </c>
       <c r="W91" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X91" t="n">
         <v>21</v>
       </c>
       <c r="Y91" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z91" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA91" t="n">
         <v>6</v>
@@ -10701,7 +10701,7 @@
         <v>501</v>
       </c>
       <c r="AE91" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF91" t="n">
         <v>17</v>
@@ -10751,13 +10751,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H92" t="n">
         <v>3.3</v>
       </c>
       <c r="I92" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J92" t="n">
         <v>1.08</v>
@@ -10778,10 +10778,10 @@
         <v>1.57</v>
       </c>
       <c r="P92" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R92" t="n">
         <v>2.05</v>
@@ -10799,7 +10799,7 @@
         <v>9</v>
       </c>
       <c r="W92" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X92" t="n">
         <v>19</v>
@@ -10826,19 +10826,19 @@
         <v>9.5</v>
       </c>
       <c r="AF92" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG92" t="n">
         <v>15</v>
       </c>
       <c r="AH92" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI92" t="n">
         <v>41</v>
       </c>
       <c r="AJ92" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93">
@@ -10873,19 +10873,19 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H93" t="n">
         <v>3.2</v>
       </c>
       <c r="I93" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J93" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K93" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L93" t="n">
         <v>1.33</v>
@@ -10894,10 +10894,10 @@
         <v>3.25</v>
       </c>
       <c r="N93" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O93" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P93" t="n">
         <v>1.44</v>
@@ -10912,16 +10912,16 @@
         <v>1.95</v>
       </c>
       <c r="T93" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U93" t="n">
         <v>13</v>
       </c>
       <c r="V93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W93" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X93" t="n">
         <v>23</v>
@@ -10942,13 +10942,13 @@
         <v>51</v>
       </c>
       <c r="AD93" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE93" t="n">
         <v>8</v>
       </c>
       <c r="AF93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG93" t="n">
         <v>10</v>
@@ -10957,7 +10957,7 @@
         <v>26</v>
       </c>
       <c r="AI93" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ93" t="n">
         <v>34</v>
@@ -10995,13 +10995,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H94" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I94" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J94" t="n">
         <v>1.07</v>
@@ -11010,22 +11010,22 @@
         <v>9</v>
       </c>
       <c r="L94" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M94" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N94" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O94" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P94" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R94" t="n">
         <v>1.95</v>
@@ -11052,7 +11052,7 @@
         <v>41</v>
       </c>
       <c r="Z94" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA94" t="n">
         <v>6</v>
@@ -11070,13 +11070,13 @@
         <v>7</v>
       </c>
       <c r="AF94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG94" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI94" t="n">
         <v>21</v>
@@ -11126,22 +11126,22 @@
         <v>2.5</v>
       </c>
       <c r="J95" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K95" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L95" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M95" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N95" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O95" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P95" t="n">
         <v>1.44</v>
@@ -11168,19 +11168,19 @@
         <v>29</v>
       </c>
       <c r="X95" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y95" t="n">
         <v>34</v>
       </c>
       <c r="Z95" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA95" t="n">
         <v>6</v>
       </c>
       <c r="AB95" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC95" t="n">
         <v>51</v>
@@ -11626,10 +11626,10 @@
         <v>3</v>
       </c>
       <c r="N99" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O99" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P99" t="n">
         <v>1.44</v>
@@ -11849,13 +11849,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H101" t="n">
         <v>3.4</v>
       </c>
       <c r="I101" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J101" t="n">
         <v>1.05</v>
@@ -11870,10 +11870,10 @@
         <v>3.5</v>
       </c>
       <c r="N101" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O101" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P101" t="n">
         <v>1.4</v>
@@ -12454,10 +12454,10 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M106" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="N106" t="n">
         <v>1.85</v>
@@ -12472,10 +12472,10 @@
         <v>2.45</v>
       </c>
       <c r="R106" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="S106" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="T106" t="n">
         <v>5.1</v>
@@ -12561,13 +12561,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H107" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I107" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J107" t="n">
         <v>1.02</v>
@@ -12588,10 +12588,10 @@
         <v>2.7</v>
       </c>
       <c r="P107" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q107" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R107" t="n">
         <v>1.62</v>
@@ -12600,13 +12600,13 @@
         <v>2.2</v>
       </c>
       <c r="T107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U107" t="n">
         <v>9</v>
       </c>
       <c r="V107" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W107" t="n">
         <v>11</v>
@@ -12630,10 +12630,10 @@
         <v>41</v>
       </c>
       <c r="AD107" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE107" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF107" t="n">
         <v>41</v>
@@ -12692,10 +12692,10 @@
         <v>4.75</v>
       </c>
       <c r="J108" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K108" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L108" t="n">
         <v>1.11</v>
@@ -12710,10 +12710,10 @@
         <v>2.88</v>
       </c>
       <c r="P108" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q108" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R108" t="n">
         <v>1.44</v>
@@ -12755,13 +12755,13 @@
         <v>81</v>
       </c>
       <c r="AE108" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF108" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG108" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH108" t="n">
         <v>51</v>
@@ -12805,7 +12805,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H109" t="n">
         <v>5.5</v>
@@ -12817,13 +12817,13 @@
         <v>1.03</v>
       </c>
       <c r="K109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L109" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M109" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N109" t="n">
         <v>1.53</v>
@@ -12838,10 +12838,10 @@
         <v>3.75</v>
       </c>
       <c r="R109" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S109" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T109" t="n">
         <v>8.5</v>
@@ -12853,7 +12853,7 @@
         <v>9</v>
       </c>
       <c r="W109" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X109" t="n">
         <v>11</v>
@@ -12862,10 +12862,10 @@
         <v>26</v>
       </c>
       <c r="Z109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB109" t="n">
         <v>21</v>
@@ -12874,13 +12874,13 @@
         <v>51</v>
       </c>
       <c r="AD109" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE109" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF109" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG109" t="n">
         <v>26</v>
@@ -12889,7 +12889,7 @@
         <v>101</v>
       </c>
       <c r="AI109" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ109" t="n">
         <v>51</v>
@@ -13417,13 +13417,13 @@
         <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J114" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L114" t="n">
         <v>1.29</v>
@@ -13438,10 +13438,10 @@
         <v>1.93</v>
       </c>
       <c r="P114" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R114" t="n">
         <v>1.95</v>
@@ -13468,7 +13468,7 @@
         <v>29</v>
       </c>
       <c r="Z114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA114" t="n">
         <v>7.5</v>
@@ -13486,7 +13486,7 @@
         <v>15</v>
       </c>
       <c r="AF114" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG114" t="n">
         <v>19</v>
@@ -13495,7 +13495,7 @@
         <v>67</v>
       </c>
       <c r="AI114" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ114" t="n">
         <v>51</v>
@@ -13533,13 +13533,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="H115" t="n">
         <v>3.25</v>
       </c>
       <c r="I115" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="J115" t="n">
         <v>1.05</v>
@@ -13572,19 +13572,19 @@
         <v>2</v>
       </c>
       <c r="T115" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V115" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W115" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X115" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y115" t="n">
         <v>29</v>
@@ -13599,25 +13599,25 @@
         <v>13</v>
       </c>
       <c r="AC115" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD115" t="n">
         <v>201</v>
       </c>
       <c r="AE115" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF115" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH115" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI115" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ115" t="n">
         <v>29</v>
@@ -13655,13 +13655,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>3.3</v>
       </c>
       <c r="I116" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J116" t="n">
         <v>1.04</v>
@@ -13688,16 +13688,16 @@
         <v>3.4</v>
       </c>
       <c r="R116" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S116" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U116" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V116" t="n">
         <v>12</v>
@@ -13724,22 +13724,22 @@
         <v>41</v>
       </c>
       <c r="AD116" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE116" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG116" t="n">
         <v>9</v>
       </c>
       <c r="AH116" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI116" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ116" t="n">
         <v>23</v>
@@ -13899,13 +13899,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H118" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I118" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J118" t="n">
         <v>1.05</v>
@@ -13932,16 +13932,16 @@
         <v>2.75</v>
       </c>
       <c r="R118" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S118" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T118" t="n">
         <v>8.5</v>
       </c>
       <c r="U118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V118" t="n">
         <v>10</v>
@@ -13971,7 +13971,7 @@
         <v>251</v>
       </c>
       <c r="AE118" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF118" t="n">
         <v>13</v>
@@ -14143,13 +14143,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="H120" t="n">
         <v>3.3</v>
       </c>
       <c r="I120" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -14175,7 +14175,7 @@
         <v>1.6</v>
       </c>
       <c r="S120" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T120" t="n">
         <v>9</v>
@@ -14184,13 +14184,13 @@
         <v>13</v>
       </c>
       <c r="V120" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W120" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X120" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y120" t="n">
         <v>26</v>
@@ -14214,13 +14214,13 @@
         <v>9.75</v>
       </c>
       <c r="AF120" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG120" t="n">
         <v>9.75</v>
       </c>
       <c r="AH120" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI120" t="n">
         <v>21</v>
@@ -14261,7 +14261,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>3.45</v>
@@ -14272,10 +14272,10 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M121" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="N121" t="n">
         <v>1.98</v>
@@ -14284,25 +14284,25 @@
         <v>1.65</v>
       </c>
       <c r="P121" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R121" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S121" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T121" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U121" t="n">
         <v>8.5</v>
       </c>
       <c r="V121" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W121" t="n">
         <v>16</v>
@@ -14311,10 +14311,10 @@
         <v>16</v>
       </c>
       <c r="Y121" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z121" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA121" t="n">
         <v>6.7</v>
@@ -15657,13 +15657,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H133" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I133" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="J133" t="n">
         <v>1.04</v>
@@ -15672,76 +15672,76 @@
         <v>8.25</v>
       </c>
       <c r="L133" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M133" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N133" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O133" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P133" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R133" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S133" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T133" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U133" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V133" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="W133" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="X133" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y133" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z133" t="n">
         <v>8.25</v>
       </c>
       <c r="AA133" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AB133" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC133" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD133" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE133" t="n">
         <v>7.6</v>
       </c>
       <c r="AF133" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AG133" t="n">
         <v>8</v>
       </c>
       <c r="AH133" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI133" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ133" t="n">
         <v>23</v>
